--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AB986F-2D20-4FAA-9181-C80E81AADE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B65B2C5-C31C-4D3A-AA98-001182B5226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="221">
   <si>
     <t>Day</t>
   </si>
@@ -669,6 +670,36 @@
   </si>
   <si>
     <t>Quiz Completed</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Supervised learning</t>
+  </si>
+  <si>
+    <t>Supervised learning- Regression</t>
+  </si>
+  <si>
+    <t>Supervised learning- Regression and Classification</t>
+  </si>
+  <si>
+    <t>Supervised learning-  Classification</t>
+  </si>
+  <si>
+    <t>Unsupervised</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>Deep learning</t>
+  </si>
+  <si>
+    <t>Unsupervised-Clustring</t>
   </si>
 </sst>
 </file>
@@ -729,22 +760,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}" name="Table2" displayName="Table2" ref="B1:F101" totalsRowShown="0">
-  <autoFilter ref="B1:F101" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}" name="Table2" displayName="Table2" ref="B1:G101" totalsRowShown="0">
+  <autoFilter ref="B1:G101" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{69DD8874-51AC-437A-8B13-B67D8378D237}" name="Day"/>
     <tableColumn id="2" xr3:uid="{54E00D24-4381-41D9-810A-AC76929D5F80}" name="Topic"/>
     <tableColumn id="3" xr3:uid="{A7FC40EB-F13B-40C4-A18C-C335B03E2985}" name="Focus"/>
     <tableColumn id="4" xr3:uid="{B200810B-6C8C-45B0-97D9-18EF846DA92A}" name="Status"/>
     <tableColumn id="5" xr3:uid="{21614129-AA9C-4ABB-B99E-DF3DC966BA0A}" name="Quiz Completed" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{276541A8-BD19-4F6C-9388-46504DA62EE2}" name="Area"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}" name="Table3" displayName="Table3" ref="H1:I5" totalsRowCount="1">
-  <autoFilter ref="H1:I4" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}" name="Table3" displayName="Table3" ref="I1:J5" totalsRowCount="1">
+  <autoFilter ref="I1:J4" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{35D2C687-9860-493E-B264-8E2AF85161B1}" name="Status"/>
     <tableColumn id="2" xr3:uid="{65C76FA5-321C-4262-896E-57BE6CC3B2B8}" name="Count" totalsRowFunction="custom">
@@ -1072,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9542EE-5EED-4BC1-A017-176B97C1DBA0}">
-  <dimension ref="B1:I101"/>
+  <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,10 +1115,10 @@
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1102,14 +1134,17 @@
       <c r="F1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1" t="s">
         <v>203</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1125,15 +1160,18 @@
       <c r="F2" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="I2" t="s">
         <v>204</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1149,15 +1187,18 @@
       <c r="F3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G3" t="s">
+        <v>212</v>
+      </c>
+      <c r="I3" t="s">
         <v>205</v>
       </c>
-      <c r="I3">
-        <f>100-I4-I2</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <f>100-J4-J2</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1173,15 +1214,18 @@
       <c r="F4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I4" t="s">
         <v>206</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1197,12 +1241,15 @@
       <c r="F5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="I5">
+      <c r="G5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5">
         <f>SUM(Table3[Count])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1218,8 +1265,11 @@
       <c r="F6" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -1235,8 +1285,11 @@
       <c r="F7" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1252,8 +1305,11 @@
       <c r="F8" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1269,8 +1325,11 @@
       <c r="F9" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1286,8 +1345,11 @@
       <c r="F10" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1303,8 +1365,11 @@
       <c r="F11" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1320,8 +1385,11 @@
       <c r="F12" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1337,8 +1405,11 @@
       <c r="F13" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1354,8 +1425,11 @@
       <c r="F14" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1366,13 +1440,16 @@
         <v>188</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -1388,8 +1465,11 @@
       <c r="F16" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
@@ -1405,8 +1485,11 @@
       <c r="F17" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
@@ -1422,8 +1505,11 @@
       <c r="F18" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -1439,8 +1525,11 @@
       <c r="F19" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
@@ -1456,8 +1545,11 @@
       <c r="F20" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -1473,8 +1565,11 @@
       <c r="F21" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -1490,8 +1585,11 @@
       <c r="F22" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>22</v>
       </c>
@@ -1507,8 +1605,11 @@
       <c r="F23" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>23</v>
       </c>
@@ -1524,8 +1625,11 @@
       <c r="F24" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>24</v>
       </c>
@@ -1541,8 +1645,11 @@
       <c r="F25" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>25</v>
       </c>
@@ -1553,13 +1660,16 @@
         <v>24</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>26</v>
       </c>
@@ -1570,13 +1680,16 @@
         <v>26</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>27</v>
       </c>
@@ -1592,8 +1705,11 @@
       <c r="F28" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>28</v>
       </c>
@@ -1609,8 +1725,11 @@
       <c r="F29" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>29</v>
       </c>
@@ -1621,13 +1740,16 @@
         <v>32</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -1643,8 +1765,11 @@
       <c r="F31" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>31</v>
       </c>
@@ -1660,8 +1785,11 @@
       <c r="F32" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>32</v>
       </c>
@@ -1677,8 +1805,11 @@
       <c r="F33" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>33</v>
       </c>
@@ -1694,8 +1825,11 @@
       <c r="F34" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>34</v>
       </c>
@@ -1711,8 +1845,11 @@
       <c r="F35" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>35</v>
       </c>
@@ -1728,8 +1865,11 @@
       <c r="F36" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>36</v>
       </c>
@@ -1745,8 +1885,11 @@
       <c r="F37" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>37</v>
       </c>
@@ -1762,8 +1905,11 @@
       <c r="F38" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>38</v>
       </c>
@@ -1779,8 +1925,11 @@
       <c r="F39" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>39</v>
       </c>
@@ -1796,8 +1945,11 @@
       <c r="F40" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>40</v>
       </c>
@@ -1813,8 +1965,11 @@
       <c r="F41" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>41</v>
       </c>
@@ -1830,8 +1985,11 @@
       <c r="F42" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>42</v>
       </c>
@@ -1847,8 +2005,11 @@
       <c r="F43" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>43</v>
       </c>
@@ -1864,8 +2025,11 @@
       <c r="F44" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>44</v>
       </c>
@@ -1881,8 +2045,11 @@
       <c r="F45" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>45</v>
       </c>
@@ -1898,8 +2065,11 @@
       <c r="F46" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>46</v>
       </c>
@@ -1915,8 +2085,11 @@
       <c r="F47" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>47</v>
       </c>
@@ -1932,8 +2105,11 @@
       <c r="F48" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>48</v>
       </c>
@@ -1949,8 +2125,11 @@
       <c r="F49" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>49</v>
       </c>
@@ -1966,8 +2145,11 @@
       <c r="F50" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>50</v>
       </c>
@@ -1983,8 +2165,11 @@
       <c r="F51" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>51</v>
       </c>
@@ -2000,8 +2185,11 @@
       <c r="F52" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>52</v>
       </c>
@@ -2017,8 +2205,11 @@
       <c r="F53" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>53</v>
       </c>
@@ -2034,8 +2225,11 @@
       <c r="F54" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>54</v>
       </c>
@@ -2051,8 +2245,11 @@
       <c r="F55" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>55</v>
       </c>
@@ -2068,8 +2265,11 @@
       <c r="F56" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>56</v>
       </c>
@@ -2085,8 +2285,11 @@
       <c r="F57" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>57</v>
       </c>
@@ -2102,8 +2305,11 @@
       <c r="F58" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>58</v>
       </c>
@@ -2119,8 +2325,11 @@
       <c r="F59" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>59</v>
       </c>
@@ -2136,8 +2345,11 @@
       <c r="F60" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>60</v>
       </c>
@@ -2153,8 +2365,11 @@
       <c r="F61" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>61</v>
       </c>
@@ -2170,8 +2385,11 @@
       <c r="F62" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>62</v>
       </c>
@@ -2187,8 +2405,11 @@
       <c r="F63" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>63</v>
       </c>
@@ -2204,8 +2425,11 @@
       <c r="F64" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>64</v>
       </c>
@@ -2221,8 +2445,11 @@
       <c r="F65" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>65</v>
       </c>
@@ -2238,8 +2465,11 @@
       <c r="F66" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>66</v>
       </c>
@@ -2255,8 +2485,11 @@
       <c r="F67" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>67</v>
       </c>
@@ -2272,8 +2505,11 @@
       <c r="F68" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>68</v>
       </c>
@@ -2289,8 +2525,11 @@
       <c r="F69" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>69</v>
       </c>
@@ -2306,8 +2545,11 @@
       <c r="F70" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -2323,8 +2565,11 @@
       <c r="F71" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>71</v>
       </c>
@@ -2340,8 +2585,11 @@
       <c r="F72" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>72</v>
       </c>
@@ -2357,8 +2605,11 @@
       <c r="F73" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2374,8 +2625,11 @@
       <c r="F74" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2391,8 +2645,11 @@
       <c r="F75" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>75</v>
       </c>
@@ -2408,8 +2665,11 @@
       <c r="F76" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>76</v>
       </c>
@@ -2425,8 +2685,11 @@
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>77</v>
       </c>
@@ -2442,8 +2705,11 @@
       <c r="F78" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2459,8 +2725,11 @@
       <c r="F79" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>79</v>
       </c>
@@ -2476,8 +2745,11 @@
       <c r="F80" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>80</v>
       </c>
@@ -2493,8 +2765,11 @@
       <c r="F81" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>81</v>
       </c>
@@ -2510,8 +2785,11 @@
       <c r="F82" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>82</v>
       </c>
@@ -2527,8 +2805,11 @@
       <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>83</v>
       </c>
@@ -2544,8 +2825,11 @@
       <c r="F84" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>84</v>
       </c>
@@ -2562,7 +2846,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>85</v>
       </c>
@@ -2579,7 +2863,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>86</v>
       </c>
@@ -2596,7 +2880,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>87</v>
       </c>
@@ -2613,7 +2897,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>88</v>
       </c>
@@ -2630,7 +2914,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>89</v>
       </c>
@@ -2647,7 +2931,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>90</v>
       </c>
@@ -2664,7 +2948,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>91</v>
       </c>
@@ -2681,7 +2965,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>92</v>
       </c>
@@ -2698,7 +2982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>93</v>
       </c>
@@ -2715,7 +2999,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>94</v>
       </c>
@@ -2732,7 +3016,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>95</v>
       </c>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B65B2C5-C31C-4D3A-AA98-001182B5226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B39E4-D387-4FC0-B453-C9C13929CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1104,10 +1106,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F9542EE-5EED-4BC1-A017-176B97C1DBA0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1195,7 +1200,7 @@
       </c>
       <c r="J3">
         <f>100-J4-J2</f>
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1222,7 +1227,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -1700,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>209</v>
@@ -1760,7 +1765,7 @@
         <v>44</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>209</v>
@@ -1780,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>209</v>
@@ -1800,13 +1805,13 @@
         <v>37</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
@@ -1820,13 +1825,13 @@
         <v>39</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
@@ -1840,13 +1845,13 @@
         <v>41</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
@@ -1860,13 +1865,13 @@
         <v>43</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
@@ -2020,7 +2025,7 @@
         <v>60</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>209</v>
@@ -2040,7 +2045,7 @@
         <v>62</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>209</v>
@@ -3131,8 +3136,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B39E4-D387-4FC0-B453-C9C13929CB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E036D97-C9D6-4E2B-978D-15F29989B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:D47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="J3">
         <f>100-J4-J2</f>
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2065,7 +2065,7 @@
         <v>64</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>209</v>
@@ -2085,7 +2085,7 @@
         <v>66</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>209</v>
@@ -2105,7 +2105,7 @@
         <v>68</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>209</v>
@@ -2125,7 +2125,7 @@
         <v>70</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>209</v>
@@ -2145,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>209</v>
@@ -2165,7 +2165,7 @@
         <v>74</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>209</v>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E036D97-C9D6-4E2B-978D-15F29989B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73017B-F2C7-4698-898D-7B07964AEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2185,7 +2185,7 @@
         <v>76</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>209</v>
@@ -2205,7 +2205,7 @@
         <v>78</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>209</v>
@@ -2225,7 +2225,7 @@
         <v>80</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>209</v>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C73017B-F2C7-4698-898D-7B07964AEA99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7CC81C-2C0B-48B4-94F5-2DD982C85238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="J3">
         <f>100-J4-J2</f>
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2245,7 +2245,7 @@
         <v>82</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>209</v>
@@ -2265,7 +2265,7 @@
         <v>84</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>209</v>
@@ -2285,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>209</v>
@@ -2305,7 +2305,7 @@
         <v>88</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>209</v>
@@ -2325,7 +2325,7 @@
         <v>90</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>209</v>
@@ -2345,7 +2345,7 @@
         <v>92</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>209</v>
@@ -2365,7 +2365,7 @@
         <v>94</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>209</v>
@@ -2385,7 +2385,7 @@
         <v>96</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>209</v>
@@ -2405,7 +2405,7 @@
         <v>98</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>209</v>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7CC81C-2C0B-48B4-94F5-2DD982C85238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062445FF-50AF-43B3-AAC6-EA05CD4D1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -1111,8 +1111,8 @@
   </sheetPr>
   <dimension ref="B1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="J2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.3">
@@ -2425,7 +2425,7 @@
         <v>100</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>209</v>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062445FF-50AF-43B3-AAC6-EA05CD4D1B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F935E5A-7CD7-444F-B250-019B190824B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="224">
   <si>
     <t>Day</t>
   </si>
@@ -702,16 +702,33 @@
   </si>
   <si>
     <t>Unsupervised-Clustring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/lakshmi25npathi/bike-sharing-dataset/data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/edenbd/children-stories-text-corpus/data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -734,14 +751,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -762,23 +782,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}" name="Table2" displayName="Table2" ref="B1:G101" totalsRowShown="0">
-  <autoFilter ref="B1:G101" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}" name="Table2" displayName="Table2" ref="B1:H101" totalsRowShown="0">
+  <autoFilter ref="B1:H101" xr:uid="{E4524EDD-16DF-4D84-B07B-BE85F2B0A212}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{69DD8874-51AC-437A-8B13-B67D8378D237}" name="Day"/>
     <tableColumn id="2" xr3:uid="{54E00D24-4381-41D9-810A-AC76929D5F80}" name="Topic"/>
     <tableColumn id="3" xr3:uid="{A7FC40EB-F13B-40C4-A18C-C335B03E2985}" name="Focus"/>
     <tableColumn id="4" xr3:uid="{B200810B-6C8C-45B0-97D9-18EF846DA92A}" name="Status"/>
     <tableColumn id="5" xr3:uid="{21614129-AA9C-4ABB-B99E-DF3DC966BA0A}" name="Quiz Completed" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{276541A8-BD19-4F6C-9388-46504DA62EE2}" name="Area"/>
+    <tableColumn id="8" xr3:uid="{0B620DD2-5847-44FF-BB42-8D5E09033932}" name="Dataset "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}" name="Table3" displayName="Table3" ref="I1:J5" totalsRowCount="1">
-  <autoFilter ref="I1:J4" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}" name="Table3" displayName="Table3" ref="J1:K5" totalsRowCount="1">
+  <autoFilter ref="J1:K4" xr:uid="{2C4BC0A7-3FB1-471E-B6F5-3B9B4A666087}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{35D2C687-9860-493E-B264-8E2AF85161B1}" name="Status"/>
     <tableColumn id="2" xr3:uid="{65C76FA5-321C-4262-896E-57BE6CC3B2B8}" name="Count" totalsRowFunction="custom">
@@ -1109,10 +1130,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:J101"/>
+  <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1120,10 +1141,12 @@
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1142,14 +1165,17 @@
       <c r="G1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J1" t="s">
         <v>203</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1168,15 +1194,15 @@
       <c r="G2" t="s">
         <v>212</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>204</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -1195,15 +1221,15 @@
       <c r="G3" t="s">
         <v>212</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>205</v>
       </c>
-      <c r="J3">
-        <f>100-J4-J2</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f>100-K4-K2</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -1222,15 +1248,15 @@
       <c r="G4" t="s">
         <v>212</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>206</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -1249,12 +1275,12 @@
       <c r="G5" t="s">
         <v>212</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <f>SUM(Table3[Count])</f>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -1274,7 +1300,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -1294,7 +1320,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -1314,7 +1340,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -1334,7 +1360,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -1354,7 +1380,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -1374,7 +1400,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -1394,7 +1420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -1414,7 +1440,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -1434,7 +1460,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -1454,7 +1480,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -2434,7 +2460,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>64</v>
       </c>
@@ -2445,7 +2471,7 @@
         <v>102</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>209</v>
@@ -2454,7 +2480,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>65</v>
       </c>
@@ -2465,7 +2491,7 @@
         <v>104</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>209</v>
@@ -2474,7 +2500,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>66</v>
       </c>
@@ -2485,7 +2511,7 @@
         <v>106</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>209</v>
@@ -2494,7 +2520,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>67</v>
       </c>
@@ -2505,7 +2531,7 @@
         <v>108</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>209</v>
@@ -2514,7 +2540,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>68</v>
       </c>
@@ -2525,7 +2551,7 @@
         <v>110</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>209</v>
@@ -2534,7 +2560,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>69</v>
       </c>
@@ -2545,7 +2571,7 @@
         <v>112</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>209</v>
@@ -2554,7 +2580,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -2565,7 +2591,7 @@
         <v>114</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>209</v>
@@ -2574,7 +2600,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>71</v>
       </c>
@@ -2585,7 +2611,7 @@
         <v>116</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>209</v>
@@ -2594,7 +2620,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>72</v>
       </c>
@@ -2605,7 +2631,7 @@
         <v>118</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>209</v>
@@ -2614,7 +2640,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>73</v>
       </c>
@@ -2625,7 +2651,7 @@
         <v>120</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>209</v>
@@ -2634,7 +2660,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>74</v>
       </c>
@@ -2645,7 +2671,7 @@
         <v>122</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>209</v>
@@ -2653,8 +2679,11 @@
       <c r="G75" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>75</v>
       </c>
@@ -2673,8 +2702,11 @@
       <c r="G76" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>76</v>
       </c>
@@ -2694,7 +2726,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>77</v>
       </c>
@@ -2714,7 +2746,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>78</v>
       </c>
@@ -2734,7 +2766,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>79</v>
       </c>
@@ -3136,11 +3168,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H75" r:id="rId1" xr:uid="{C7A8E429-4941-4B03-89A1-908D87700EA3}"/>
+  </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <tableParts count="2">
-    <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F935E5A-7CD7-444F-B250-019B190824B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552E230-7C03-4DA1-A596-524EE2C5E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="225">
   <si>
     <t>Day</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/edenbd/children-stories-text-corpus/data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/jr2ngb/superstore-data/data</t>
   </si>
 </sst>
 </file>
@@ -1132,15 +1135,15 @@
   </sheetPr>
   <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="74.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -1199,7 +1202,7 @@
       </c>
       <c r="K2">
         <f>COUNTIF(Table2[Status],"100%")</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
@@ -1226,7 +1229,7 @@
       </c>
       <c r="K3">
         <f>100-K4-K2</f>
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -1240,7 +1243,7 @@
         <v>166</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>209</v>
@@ -1248,12 +1251,15 @@
       <c r="G4" t="s">
         <v>212</v>
       </c>
+      <c r="H4" t="s">
+        <v>224</v>
+      </c>
       <c r="J4" t="s">
         <v>206</v>
       </c>
       <c r="K4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -2694,7 +2700,7 @@
         <v>124</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>209</v>

--- a/100 days challenge plan.xlsx
+++ b/100 days challenge plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amey9\Documents\GitHub\DataScience-100-Days-of-Data-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F552E230-7C03-4DA1-A596-524EE2C5E282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF680D-17F6-4220-8BD2-7AB80A3078EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{43A6502E-7FB5-4714-85BE-B3A38F8C5F68}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="227">
   <si>
     <t>Day</t>
   </si>
@@ -714,6 +714,12 @@
   </si>
   <si>
     <t>https://www.kaggle.com/datasets/jr2ngb/superstore-data/data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/dorianlazar/medium-articles-dataset</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/datasets/niraliivaghani/chatbot-dataset/code</t>
   </si>
 </sst>
 </file>
@@ -1135,8 +1141,8 @@
   </sheetPr>
   <dimension ref="B1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I76" sqref="G76:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1235,7 @@
       </c>
       <c r="K3">
         <f>100-K4-K2</f>
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
@@ -1259,7 +1265,7 @@
       </c>
       <c r="K4">
         <f>COUNTIF(Table2[Status],"0%")</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
@@ -2708,7 +2714,7 @@
       <c r="G76" t="s">
         <v>219</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2723,13 +2729,16 @@
         <v>126</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G77" t="s">
         <v>219</v>
+      </c>
+      <c r="H77" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.3">
@@ -2743,13 +2752,16 @@
         <v>128</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G78" t="s">
         <v>219</v>
+      </c>
+      <c r="H78" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.3">
@@ -3176,12 +3188,13 @@
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H75" r:id="rId1" xr:uid="{C7A8E429-4941-4B03-89A1-908D87700EA3}"/>
+    <hyperlink ref="H76" r:id="rId2" xr:uid="{02395B25-E591-416D-8E48-649D0B1907C3}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId3"/>
   <tableParts count="2">
-    <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>